--- a/python/유튜브댓글크롤링/youtube_result.xlsx
+++ b/python/유튜브댓글크롤링/youtube_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="브랜드 만드는 유일한 방법｜마케팅 리마인드 5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="브랜드 만드는 유일한 방법｜마케팅 리마인드 5" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF6600"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,21 +426,168 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>jaedong park</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>영상 너무나도 잘봤습니다~!</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>권기훈</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>가치 있는 영상 추천합니다.!!</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>공간 꾸미기</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>우와.. 감사합니다 !</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Andrew Lim</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>1등! 선 댓글후 감상!
+항상 좋은영상 감사합니다^^</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>김필수</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>좋은 영상 최고에요 잘 봤습니다</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>김동현</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>왜 이 마케팅의 정석같은 영상에 덧글이 서른개입니까!</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>felizakka</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>상표와 브랜딩, 브랜드에 대한 개념을 잘 이해할 수 있었습니다.
+감사합니다!</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>내 이름은 케이_I AM Kei</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>늘 잘 보고있어요 (ˊσ̴̶̷̤ ₋̮̑ σ̴̶̷̤ˋ)₊ෆ⁺˚</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2M MH</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>진짜 늘 깨우침이 있는 강의 너무 잘보고있습니다.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>티비지수기</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>항상 감사드리며 응원합니다~^^
 연산과 인지도!
@@ -435,479 +595,350 @@
 다시 해야할것같습니다.</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Andrew Lim</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1등! 선 댓글후 감상!
-항상 좋은영상 감사합니다^^</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>하상수</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>상표와 브랜드의 차이점을 인지할수있었습니다.
-우리는 무엇으로 기억되길 원하는가? 에 대해 곰공히 생각해봐야겠네요.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>엔디 ANDY</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>영상 잘 보았습니다
+상표. 브랜딩. 브랜드
+무엇으로 기억되길 원하는지 신중히 고민해보겠습니다</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>부자아빠</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>좋아요, 감사합니다</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>amazon 정사장</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩의 본질에 대해 좋은 영감을 심어주는 영상이네요 나만의 가치를 담은 제품과 브랜딩...   깊은 고찰을 하게합니다</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>No No</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>무엇으로 기억되길 원하는가 
+정말 값진 도움을 얻고 갑니다</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>위드준 TV</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>상표에서 브랜딩을... 브랜드로.. 
 일헥타르가 저의 겨자씨가 겨자나무로 클때 까지 함께 해줄 것 같네요..
 소중한 정보 정말 정말 정말 감사합니다... 일헥타~~르! ^^</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>권기훈</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>가치 있는 영상 추천합니다.!!</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>jaedong park</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>영상 너무나도 잘봤습니다~!</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>felizakka</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>상표와 브랜딩, 브랜드에 대한 개념을 잘 이해할 수 있었습니다.
-감사합니다!</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>amazon 정사장</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>브랜딩의 본질에 대해 좋은 영감을 심어주는 영상이네요 나만의 가치를 담은 제품과 브랜딩...   깊은 고찰을 하게합니다</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>여덞식이</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>브랜드</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>하상수</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>상표와 브랜드의 차이점을 인지할수있었습니다.
+우리는 무엇으로 기억되길 원하는가? 에 대해 곰공히 생각해봐야겠네요.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>공간 꾸미기</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>우와.. 감사합니다 !</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>김필수</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>좋은 영상 최고에요 잘 봤습니다</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>부자아빠</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>좋아요, 감사합니다</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>건담</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>마케팅에 대해 공부하고 싶었는데 정말 귀한 영상 올려주심애 감사합니다. 영상 하나하나가 끝날때마다 깊이 생각하게 되네요~~혹시마케팅에 관한 책추천도 부탁드려도 될까요?!</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>엔디 ANDY</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>영상 잘 보았습니다
-상표. 브랜딩. 브랜드
-무엇으로 기억되길 원하는지 신중히 고민해보겠습니다</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>내 이름은 케이_I AM Kei</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>늘 잘 보고있어요 (ˊσ̴̶̷̤ ₋̮̑ σ̴̶̷̤ˋ)₊ෆ⁺˚</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2M MH</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>진짜 늘 깨우침이 있는 강의 너무 잘보고있습니다.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>김소희</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ㅋㅋ맞아요, 스타벅스에 파는 텀블러랑 똑.같.이 생긴 걸 락앤락에서 봤는데 만원 이하더라구요...ㅋ 아...오늘도 좋아요 꾸욱 누르고 갑니다, 영상을 정주행 할수록 머리에 도로가 뚫리는 기분입니다. 일헥타르 채널에 신뢰가 쌓이고, 호감이 가며, 점점 소속감이 생기네요 ^^</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>김동현</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>왜 이 마케팅의 정석같은 영상에 덧글이 서른개입니까!</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>the whale</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩하는 과정이 믿음이 장성해지는 것과 원리가 비슷한거 같군요..</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Jungmo Bae</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>영상감사합니다
 지금 정주행중인데
 마케팅리마인드6편은 어디있나요?</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Chanran찬란</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>잘 듣고 갑니다... 구독꾹</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>하상수</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>1등</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>김소희</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>ㅋㅋ맞아요, 스타벅스에 파는 텀블러랑 똑.같.이 생긴 걸 락앤락에서 봤는데 만원 이하더라구요...ㅋ 아...오늘도 좋아요 꾸욱 누르고 갑니다, 영상을 정주행 할수록 머리에 도로가 뚫리는 기분입니다. 일헥타르 채널에 신뢰가 쌓이고, 호감이 가며, 점점 소속감이 생기네요 ^^</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>나쵸</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">처음으로 댓글 남겨요~~ ㅎㅎ
+무엇으로 기억되길 원하는가.. 제 자신에게 계속 질문해야겠어요 서술형이 아닌 한 단어로 표현할 수 있기까지 노력해야겠습니다 ~ 
+많은 생각이 드는 영상!! </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>별책방</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>브랜드를 만드려면 
 - '우리는 무엇으로 기억되길 원하는가 '를 생각하라.
 - 자신의 정체성으로 살아내라.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>나쵸</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">처음으로 댓글 남겨요~~ ㅎㅎ
-무엇으로 기억되길 원하는가.. 제 자신에게 계속 질문해야겠어요 서술형이 아닌 한 단어로 표현할 수 있기까지 노력해야겠습니다 ~ 
-많은 생각이 드는 영상!! </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>heal yourself meditation</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>실질적으로 대입시켜보고 싶네요! 감사합니다!</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>the whale</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>브랜딩하는 과정이 믿음이 장성해지는 것과 원리가 비슷한거 같군요..</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>여덞식이</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>브랜드</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>삽살개아니에여 NellyTube</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>애견용품점 호텔링은 경험적브랜드에 해당할까요?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>조정화</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>감사합니다</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>만득불</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>식당은 어느쪽일까요?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>캐드신</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>엄청난 강의입니다 감사합니다!</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>휘스토리</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">상표를 브랜드로 만드는 방법
 - 그 삶 자체를 사는것 (그리하여 그 상표 하면 떠오르는 것 - 그 상표는 000 이야) 
 - 인지도를 얻는것   </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>하상수</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1등</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>heal yourself meditation</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>실질적으로 대입시켜보고 싶네요! 감사합니다!</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>만득불</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>식당은 어느쪽일까요?</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>삽살개아니에여 NellyTube</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>애견용품점 호텔링은 경험적브랜드에 해당할까요?</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>조정화</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>감사합니다</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>캐드신</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>엄청난 강의입니다 감사합니다!</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/python/유튜브댓글크롤링/youtube_result.xlsx
+++ b/python/유튜브댓글크롤링/youtube_result.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="브랜드 만드는 유일한 방법｜마케팅 리마인드 5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="브랜드 만드는 유일한 방법｜마케팅 리마인드 51" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="브랜드 만드는 유일한 방법｜마케팅 리마인드 52" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="브랜드 만드는 유일한 방법｜마케팅 리마인드 53" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,7 +538,6 @@
           <t>왜 이 마케팅의 정석같은 영상에 덧글이 서른개입니까!</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -549,7 +551,6 @@
 감사합니다!</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -579,7 +580,6 @@
           <t>진짜 늘 깨우침이 있는 강의 너무 잘보고있습니다.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -666,7 +666,6 @@
 정말 값진 도움을 얻고 갑니다</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -698,7 +697,6 @@
           <t>브랜드</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -765,7 +763,6 @@
 마케팅리마인드6편은 어디있나요?</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -778,7 +775,6 @@
           <t>잘 듣고 갑니다... 구독꾹</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -808,7 +804,6 @@
           <t>ㅋㅋ맞아요, 스타벅스에 파는 텀블러랑 똑.같.이 생긴 걸 락앤락에서 봤는데 만원 이하더라구요...ㅋ 아...오늘도 좋아요 꾸욱 누르고 갑니다, 영상을 정주행 할수록 머리에 도로가 뚫리는 기분입니다. 일헥타르 채널에 신뢰가 쌓이고, 호감이 가며, 점점 소속감이 생기네요 ^^</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -876,7 +871,6 @@
           <t>애견용품점 호텔링은 경험적브랜드에 해당할까요?</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -906,7 +900,6 @@
           <t>식당은 어느쪽일까요?</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -919,7 +912,6 @@
           <t>엄청난 강의입니다 감사합니다!</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -939,6 +931,1647 @@
           <t>6</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>jaedong park</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>영상 너무나도 잘봤습니다~!</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>권기훈</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>가치 있는 영상 추천합니다.!!</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>공간 꾸미기</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>우와.. 감사합니다 !</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>김필수</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>좋은 영상 최고에요 잘 봤습니다</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Andrew Lim</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>1등! 선 댓글후 감상!
+항상 좋은영상 감사합니다^^</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>내 이름은 케이_I AM Kei</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>늘 잘 보고있어요 (ˊσ̴̶̷̤ ₋̮̑ σ̴̶̷̤ˋ)₊ෆ⁺˚</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2M MH</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>진짜 늘 깨우침이 있는 강의 너무 잘보고있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>부자아빠</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>좋아요, 감사합니다</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>티비지수기</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>항상 감사드리며 응원합니다~^^
+연산과 인지도!
+이 채널덕분에 마케팅공부까지
+다시 해야할것같습니다.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>김동현</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>왜 이 마케팅의 정석같은 영상에 덧글이 서른개입니까!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>amazon 정사장</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩의 본질에 대해 좋은 영감을 심어주는 영상이네요 나만의 가치를 담은 제품과 브랜딩...   깊은 고찰을 하게합니다</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>엔디 ANDY</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>영상 잘 보았습니다
+상표. 브랜딩. 브랜드
+무엇으로 기억되길 원하는지 신중히 고민해보겠습니다</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>하상수</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>상표와 브랜드의 차이점을 인지할수있었습니다.
+우리는 무엇으로 기억되길 원하는가? 에 대해 곰공히 생각해봐야겠네요.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>건담</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>마케팅에 대해 공부하고 싶었는데 정말 귀한 영상 올려주심애 감사합니다. 영상 하나하나가 끝날때마다 깊이 생각하게 되네요~~혹시마케팅에 관한 책추천도 부탁드려도 될까요?!</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>여덞식이</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>브랜드</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>felizakka</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>상표와 브랜딩, 브랜드에 대한 개념을 잘 이해할 수 있었습니다.
+감사합니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>위드준 TV</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>상표에서 브랜딩을... 브랜드로.. 
+일헥타르가 저의 겨자씨가 겨자나무로 클때 까지 함께 해줄 것 같네요..
+소중한 정보 정말 정말 정말 감사합니다... 일헥타~~르! ^^</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>하상수</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>1등</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>김소희</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>ㅋㅋ맞아요, 스타벅스에 파는 텀블러랑 똑.같.이 생긴 걸 락앤락에서 봤는데 만원 이하더라구요...ㅋ 아...오늘도 좋아요 꾸욱 누르고 갑니다, 영상을 정주행 할수록 머리에 도로가 뚫리는 기분입니다. 일헥타르 채널에 신뢰가 쌓이고, 호감이 가며, 점점 소속감이 생기네요 ^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>나쵸</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">처음으로 댓글 남겨요~~ ㅎㅎ
+무엇으로 기억되길 원하는가.. 제 자신에게 계속 질문해야겠어요 서술형이 아닌 한 단어로 표현할 수 있기까지 노력해야겠습니다 ~ 
+많은 생각이 드는 영상!! </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Chanran찬란</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>잘 듣고 갑니다... 구독꾹</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>No No</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>무엇으로 기억되길 원하는가 
+정말 값진 도움을 얻고 갑니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Jungmo Bae</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>영상감사합니다
+지금 정주행중인데
+마케팅리마인드6편은 어디있나요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>BBangji</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>실질적으로 대입시켜보고 싶네요! 감사합니다!</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>별책방</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>브랜드를 만드려면 
+- '우리는 무엇으로 기억되길 원하는가 '를 생각하라.
+- 자신의 정체성으로 살아내라.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>the whale</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩하는 과정이 믿음이 장성해지는 것과 원리가 비슷한거 같군요..</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>삽살개아니에여 NellyTube</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>애견용품점 호텔링은 경험적브랜드에 해당할까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>조정화</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>감사합니다</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>성공의길</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>상표 &gt; 브랜딩(업적을 쌓는 과정) &gt; 브랜드 
+자신을 소개할때 이름을 알린다. 즉 이름으로 기억되고 이름은 중요하다  *브랜드*의 중요성
+예를들어 허준, 이순신 이름을 가진 사람은 너무나도 많지만 우리의 머리속엔 단 한사람만을 생각한다. 만약 허준이 아니라
+김준 이었다면 우리는 김준이라고 기억했을 것이다. 세상에 갓 태어난 아기가 이제 막 허준이라면 아직 세상은 몰랐을거다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>만득불</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>식당은 어느쪽일까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>휘스토리</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상표를 브랜드로 만드는 방법
+- 그 삶 자체를 사는것 (그리하여 그 상표 하면 떠오르는 것 - 그 상표는 000 이야) 
+- 인지도를 얻는것   </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>컴카칭</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩과 브랜드의 차이 브랜드를  만들어 내는 3가지 핵심가치를 
+부여하는 과정이 왜 집중해야 하는지 다양한 분석력을 통해 신뢰 호감
+소속감 을 갖도록 해야 진정한 우리의 나의 브랜드가 된다는 사실 00 같은분들 
+00회사 브랜드 00제품 선호하는 이유 등 알기쉽게 설명 도움됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>캐드신</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>엄청난 강의입니다 감사합니다!</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No No</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>무엇으로 기억되길 원하는가 
+정말 값진 도움을 얻고 갑니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>부자아빠</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>좋아요, 감사합니다</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Andrew Lim</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>1등! 선 댓글후 감상!
+항상 좋은영상 감사합니다^^</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2M MH</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>진짜 늘 깨우침이 있는 강의 너무 잘보고있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>내 이름은 케이_I AM Kei</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>늘 잘 보고있어요 (ˊσ̴̶̷̤ ₋̮̑ σ̴̶̷̤ˋ)₊ෆ⁺˚</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>amazon 정사장</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩의 본질에 대해 좋은 영감을 심어주는 영상이네요 나만의 가치를 담은 제품과 브랜딩...   깊은 고찰을 하게합니다</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>성공의길</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>상표 &gt; 브랜딩(업적을 쌓는 과정) &gt; 브랜드 
+자신을 소개할때 이름을 알린다. 즉 이름으로 기억되고 이름은 중요하다  *브랜드*의 중요성
+예를들어 허준, 이순신 이름을 가진 사람은 너무나도 많지만 우리의 머리속엔 단 한사람만을 생각한다. 만약 허준이 아니라</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Chanran찬란</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>잘 듣고 갑니다... 구독꾹</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>엔디 ANDY</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>영상 잘 보았습니다
+상표. 브랜딩. 브랜드
+무엇으로 기억되길 원하는지 신중히 고민해보겠습니다</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>공간 꾸미기</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>우와.. 감사합니다 !</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>권기훈</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>가치 있는 영상 추천합니다.!!</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>jaedong park</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>영상 너무나도 잘봤습니다~!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>티비지수기</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>항상 감사드리며 응원합니다~^^
+연산과 인지도!
+이 채널덕분에 마케팅공부까지
+다시 해야할것같습니다.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>김필수</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>좋은 영상 최고에요 잘 봤습니다</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>felizakka</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>상표와 브랜딩, 브랜드에 대한 개념을 잘 이해할 수 있었습니다.
+감사합니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>김동현</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>왜 이 마케팅의 정석같은 영상에 덧글이 서른개입니까!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>김소희</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>ㅋㅋ맞아요, 스타벅스에 파는 텀블러랑 똑.같.이 생긴 걸 락앤락에서 봤는데 만원 이하더라구요...ㅋ 아...오늘도 좋아요 꾸욱 누르고 갑니다, 영상을 정주행 할수록 머리에 도로가 뚫리는 기분입니다. 일헥타르 채널에 신뢰가 쌓이고, 호감이 가며, 점점 소속감이 생기네요 ^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>위드준 TV</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>상표에서 브랜딩을... 브랜드로.. 
+일헥타르가 저의 겨자씨가 겨자나무로 클때 까지 함께 해줄 것 같네요..
+소중한 정보 정말 정말 정말 감사합니다... 일헥타~~르! ^^</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>하상수</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>상표와 브랜드의 차이점을 인지할수있었습니다.
+우리는 무엇으로 기억되길 원하는가? 에 대해 곰공히 생각해봐야겠네요.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>the whale</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩하는 과정이 믿음이 장성해지는 것과 원리가 비슷한거 같군요..</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>건담</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>마케팅에 대해 공부하고 싶었는데 정말 귀한 영상 올려주심애 감사합니다. 영상 하나하나가 끝날때마다 깊이 생각하게 되네요~~혹시마케팅에 관한 책추천도 부탁드려도 될까요?!</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Jungmo Bae</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>영상감사합니다
+지금 정주행중인데
+마케팅리마인드6편은 어디있나요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>나쵸</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">처음으로 댓글 남겨요~~ ㅎㅎ
+무엇으로 기억되길 원하는가.. 제 자신에게 계속 질문해야겠어요 서술형이 아닌 한 단어로 표현할 수 있기까지 노력해야겠습니다 ~ </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>별책방</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>브랜드를 만드려면 
+- '우리는 무엇으로 기억되길 원하는가 '를 생각하라.
+- 자신의 정체성으로 살아내라.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>하상수</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>1등</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>여덞식이</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>브랜드</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>BBangji</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>실질적으로 대입시켜보고 싶네요! 감사합니다!</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>만득불</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>식당은 어느쪽일까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>휘스토리</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상표를 브랜드로 만드는 방법
+- 그 삶 자체를 사는것 (그리하여 그 상표 하면 떠오르는 것 - 그 상표는 000 이야) 
+- 인지도를 얻는것   </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>삽살개아니에여 NellyTube</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>애견용품점 호텔링은 경험적브랜드에 해당할까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>조정화</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>감사합니다</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>캐드신</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>엄청난 강의입니다 감사합니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>컴카칭</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩과 브랜드의 차이 브랜드를  만들어 내는 3가지 핵심가치를 
+부여하는 과정이 왜 집중해야 하는지 다양한 분석력을 통해 신뢰 호감
+소속감 을 갖도록 해야 진정한 우리의 나의 브랜드가 된다는 사실 00 같은분들 
+00회사 브랜드 00제품 선호하는 이유 등 알기쉽게 설명 도움됩니다.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Andrew Lim</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>1등! 선 댓글후 감상!
+항상 좋은영상 감사합니다^^</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>jaedong park</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>영상 너무나도 잘봤습니다~!</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>권기훈</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>가치 있는 영상 추천합니다.!!</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>공간 꾸미기</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>우와.. 감사합니다 !</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2M MH</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>진짜 늘 깨우침이 있는 강의 너무 잘보고있습니다.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>위드준 TV</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>상표에서 브랜딩을... 브랜드로.. 
+일헥타르가 저의 겨자씨가 겨자나무로 클때 까지 함께 해줄 것 같네요..
+소중한 정보 정말 정말 정말 감사합니다... 일헥타~~르! ^^</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>내 이름은 케이_I AM Kei</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>늘 잘 보고있어요 (ˊσ̴̶̷̤ ₋̮̑ σ̴̶̷̤ˋ)₊ෆ⁺˚</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>김필수</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>좋은 영상 최고에요 잘 봤습니다</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>김동현</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>왜 이 마케팅의 정석같은 영상에 덧글이 서른개입니까!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>부자아빠</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>좋아요, 감사합니다</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>엔디 ANDY</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>영상 잘 보았습니다
+상표. 브랜딩. 브랜드
+무엇으로 기억되길 원하는지 신중히 고민해보겠습니다</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>felizakka</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>상표와 브랜딩, 브랜드에 대한 개념을 잘 이해할 수 있었습니다.
+감사합니다!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>amazon 정사장</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩의 본질에 대해 좋은 영감을 심어주는 영상이네요 나만의 가치를 담은 제품과 브랜딩...   깊은 고찰을 하게합니다</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>티비지수기</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>항상 감사드리며 응원합니다~^^
+연산과 인지도!
+이 채널덕분에 마케팅공부까지
+다시 해야할것같습니다.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Chanran찬란</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>잘 듣고 갑니다... 구독꾹</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>여덞식이</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>브랜드</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>하상수</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>상표와 브랜드의 차이점을 인지할수있었습니다.
+우리는 무엇으로 기억되길 원하는가? 에 대해 곰공히 생각해봐야겠네요.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>하상수</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>1등</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>the whale</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩하는 과정이 믿음이 장성해지는 것과 원리가 비슷한거 같군요..</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>No No</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>무엇으로 기억되길 원하는가 
+정말 값진 도움을 얻고 갑니다</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Jungmo Bae</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>영상감사합니다
+지금 정주행중인데
+마케팅리마인드6편은 어디있나요?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>김소희</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>ㅋㅋ맞아요, 스타벅스에 파는 텀블러랑 똑.같.이 생긴 걸 락앤락에서 봤는데 만원 이하더라구요...ㅋ 아...오늘도 좋아요 꾸욱 누르고 갑니다, 영상을 정주행 할수록 머리에 도로가 뚫리는 기분입니다. 일헥타르 채널에 신뢰가 쌓이고, 호감이 가며, 점점 소속감이 생기네요 ^^</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>건담</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>마케팅에 대해 공부하고 싶었는데 정말 귀한 영상 올려주심애 감사합니다. 영상 하나하나가 끝날때마다 깊이 생각하게 되네요~~혹시마케팅에 관한 책추천도 부탁드려도 될까요?!</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>만득불</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>식당은 어느쪽일까요?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>별책방</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>브랜드를 만드려면 
+- '우리는 무엇으로 기억되길 원하는가 '를 생각하라.
+- 자신의 정체성으로 살아내라.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>삽살개아니에여 NellyTube</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>애견용품점 호텔링은 경험적브랜드에 해당할까요?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>나쵸</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">처음으로 댓글 남겨요~~ ㅎㅎ
+무엇으로 기억되길 원하는가.. 제 자신에게 계속 질문해야겠어요 서술형이 아닌 한 단어로 표현할 수 있기까지 노력해야겠습니다 ~ </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>BBangji</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>실질적으로 대입시켜보고 싶네요! 감사합니다!</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>성공의길</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>상표 &gt; 브랜딩(업적을 쌓는 과정) &gt; 브랜드 
+자신을 소개할때 이름을 알린다. 즉 이름으로 기억되고 이름은 중요하다  *브랜드*의 중요성
+예를들어 허준, 이순신 이름을 가진 사람은 너무나도 많지만 우리의 머리속엔 단 한사람만을 생각한다. 만약 허준이 아니라</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>컴카칭</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>브랜딩과 브랜드의 차이 브랜드를  만들어 내는 3가지 핵심가치를 
+부여하는 과정이 왜 집중해야 하는지 다양한 분석력을 통해 신뢰 호감
+소속감 을 갖도록 해야 진정한 우리의 나의 브랜드가 된다는 사실 00 같은분들 
+00회사 브랜드 00제품 선호하는 이유 등 알기쉽게 설명 도움됩니다.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>조정화</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>감사합니다</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>휘스토리</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상표를 브랜드로 만드는 방법
+- 그 삶 자체를 사는것 (그리하여 그 상표 하면 떠오르는 것 - 그 상표는 000 이야) 
+- 인지도를 얻는것   </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>캐드신</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>엄청난 강의입니다 감사합니다!</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
